--- a/LIQ_20196_1_1.xlsx
+++ b/LIQ_20196_1_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>NOMBRE:</t>
   </si>
@@ -89,42 +89,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>
@@ -315,7 +279,7 @@
         <v>21</v>
       </c>
       <c r="D23" s="1" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="3:4">

--- a/LIQ_20196_1_1.xlsx
+++ b/LIQ_20196_1_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>NOMBRE:</t>
   </si>
@@ -89,6 +89,48 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>

--- a/LIQ_20196_1_1.xlsx
+++ b/LIQ_20196_1_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>NOMBRE:</t>
   </si>
@@ -89,48 +89,6 @@
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>19</t>
   </si>
 </sst>
 </file>

--- a/LIQ_20196_1_1.xlsx
+++ b/LIQ_20196_1_1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>NOMBRE:</t>
   </si>
@@ -28,13 +28,7 @@
     <t>Anibal David Benitez Bedoya</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>4.362.457</t>
   </si>
   <si>
     <t>DIAS TRABAJADOS:</t>
@@ -49,9 +43,6 @@
     <t>HORA NEGATIVA:</t>
   </si>
   <si>
-    <t>MANO DE OBRA (Gs):</t>
-  </si>
-  <si>
     <t>EQUIPO DE PROTECCION PERSONAL (EPP)</t>
   </si>
   <si>
@@ -86,9 +77,6 @@
   </si>
   <si>
     <t>TOTAL A PAGAR:</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -138,7 +126,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -156,15 +144,15 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
+      <c r="D4" s="1" t="n">
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="3:4">
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1" t="n">
         <v>6</v>
       </c>
     </row>
@@ -172,13 +160,13 @@
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>7</v>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="3:4">
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>0</v>
@@ -186,44 +174,39 @@
     </row>
     <row r="11" spans="3:4">
       <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="3:4">
       <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="3:4">
       <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
-      <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="3:4">
       <c r="C15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="3:4">
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>0</v>
@@ -231,15 +214,15 @@
     </row>
     <row r="17" spans="3:4">
       <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="3:4">
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>0</v>
@@ -247,20 +230,23 @@
     </row>
     <row r="19" spans="3:4">
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="20" spans="3:4">
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="3:4">
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
@@ -268,7 +254,7 @@
     </row>
     <row r="22" spans="3:4">
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
@@ -276,7 +262,7 @@
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>0</v>
@@ -284,7 +270,7 @@
     </row>
     <row r="24" spans="3:4">
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>0</v>
@@ -292,7 +278,7 @@
     </row>
     <row r="25" spans="3:4">
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>0</v>
@@ -300,10 +286,20 @@
     </row>
     <row r="26" spans="3:4">
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
